--- a/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,54%</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,33%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,25%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,03</t>
+          <t>-6,31; -0,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,55</t>
+          <t>-5,33; -0,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,99</t>
+          <t>-4,17; 0,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,12</t>
+          <t>-2,97; 3,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,1</t>
+          <t>-4,79; 2,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,98; 125,35</t>
+          <t>-6,05; -0,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 213,48</t>
+          <t>-7,53; -0,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 125,23</t>
+          <t>-6,62; -0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 54,51</t>
+          <t>-5,51; -0,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 111,25</t>
+          <t>-4,34; 0,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 3,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 2,23</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; -0,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; -0,88</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>148,19%</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>226,92%</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>-6,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>154,02%</t>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,01</t>
+          <t>-10,34; -3,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,21</t>
+          <t>-9,57; -2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,34</t>
+          <t>-4,75; 0,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,59</t>
+          <t>-5,5; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 15,37</t>
+          <t>-8,2; -1,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,36; 301,16</t>
+          <t>-16,57; -2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,43; 565,11</t>
+          <t>-7,47; 4,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 133,33</t>
+          <t>-10,73; -3,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 140,84</t>
+          <t>-9,81; -3,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 389,69</t>
+          <t>-4,92; 0,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 3,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; -1,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,26; -3,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 4,94</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>40,57%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>489,97%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>235,09%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,19%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 8,55</t>
+          <t>-8,83; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,3</t>
+          <t>-11,12; -1,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,57</t>
+          <t>-10,46; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,09</t>
+          <t>-10,74; -0,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-11,19; 4,36</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-35,6; 223,04</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,95; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 288,25</t>
+          <t>-9,26; 4,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 1245,38</t>
+          <t>-11,24; -1,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 2,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; -0,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-11,64; 4,84</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>150,25%</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,73</t>
+          <t>-6,66; -2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,36</t>
+          <t>-6,61; -2,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,81</t>
+          <t>-3,88; -0,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,03</t>
+          <t>-3,64; 0,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,15</t>
+          <t>-5,43; -0,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,0; 145,1</t>
+          <t>-7,1; -1,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>70,06; 267,43</t>
+          <t>-6,18; -0,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 97,73</t>
+          <t>-7,02; -2,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 86,17</t>
+          <t>-6,8; -2,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,65; 129,43</t>
+          <t>-4,05; -0,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 0,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; -0,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; -2,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; -0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,74%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-3,33%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-4,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.505951314215605</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.367327259567177</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.118858005795476</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.08365852164922138</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.7236045773243</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-3.100196497247121</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-4.029997482409231</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.03738693591608651</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.0349957335893265</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.02213694175504057</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.00090303042314737</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.01860953984987979</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.03331071063558418</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.04392080651583031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; -0,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; -0,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 0,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 3,24</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 2,01</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; -0,31</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; -0,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; -0,76</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; -0,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 0,66</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 3,54</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 2,23</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; -0,33</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; -0,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.30527043470356</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.24742733772117</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.365923844610729</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.037076531171239</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.474325552229518</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.052454591283908</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-7.551652546188249</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06618724794149468</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.06457639439689712</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.04509797254869952</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.03213561031881312</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.05825851027195004</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.06483384254340678</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.08052360890075334</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.6998428158132097</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.5508368232273451</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6355010459237842</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.208962232461851</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.797505263927839</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.313811788732126</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.9122718607931917</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.007575593181892517</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.006132580168858917</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.006744943101972254</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.03540322425638356</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.01982643971995059</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>-0.003328367602904082</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>-0.01020988154724987</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,06</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-6,57%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-6,43%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-2,04%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-5,29%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-9,39%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-1,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; -3,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; -2,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 0,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 2,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; -1,77</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-16,57; -2,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 4,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; -3,44</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; -3,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 0,74</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 3,26</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; -1,88</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-17,26; -3,23</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 4,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.290177651558027</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.386127508671324</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.757823508157375</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.914128416743821</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-5.078067003497755</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-8.851315663231851</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-1.450501094194723</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.0656925181431192</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.05563783952153079</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.01846514881704072</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.02043127351715709</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.05311412127389398</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.09390340550101343</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.01618857756625362</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,98%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-5,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-4,19%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-5,82%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-3,35%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.3432002396935</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.38327034055874</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.614145345239292</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.453298266595285</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-8.281032669653325</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-16.57001058448274</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-7.197841653479895</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1072717205082166</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.08599625436891854</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.04775144736092402</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.05645040579818447</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.08547781878439581</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.1726377742257913</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.0799541490720362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 3,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; -1,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 2,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; -0,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 4,36</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-9,26; 4,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-11,24; -1,03</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-10,81; 2,97</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; -0,71</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 4,84</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-3.235295126461003</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-1.90617894419434</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.016873137555922</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.181803254901065</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-1.830518140637787</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-2.980386544686838</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>4.474129881484804</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.03437149096581773</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.02010879924325239</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.01061735415654361</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.0355089387170241</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>-0.01944682629026013</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>-0.03230172730773481</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.0509566936453783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,53</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-4,79%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-4,58%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-1,59%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-3,34%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-4,68%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-3,67%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.77257258818645</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.216798195701244</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.673596099565779</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.646778869781177</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-3.070535415514308</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.02976045735115098</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.05277067103349905</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.03926941094078467</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.05796460748406336</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.03255935398280526</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; -2,64</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; -2,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; -0,45</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 0,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; -0,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; -1,88</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; -0,58</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; -2,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; -2,67</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; -0,49</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 0,9</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; -0,94</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; -2,06</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; -0,71</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.830400533442019</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.52164257702246</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.17192997835515</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.55877323409836</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-11.08198332930789</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.09262563255747058</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1072354851120406</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1063798993430031</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.1098848710700573</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.1155342611571407</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.731802313904085</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.198126511980484</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.314349197909133</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.024672095720807</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.638537810598138</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.04116707146516432</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.01243432193817418</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.03671117434560179</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>-0.01318017287828853</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.04909079664743857</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.527679924219075</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.386837826683676</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.120332014978255</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.480037280884994</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.231357164936355</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-4.367836794580016</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-3.411307247050588</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04791376231200088</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.04532803183844408</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0222625434481647</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01580406311780385</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.03436685193246201</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.04678846981796971</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.0373918210002674</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.661709803658221</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.411800804810897</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.920067878420682</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.492696127282666</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.557227289574975</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-7.097319989977226</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-6.250239363783479</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07015026422575034</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06603929252276988</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.04101364810883808</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.0369568425780652</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.05856860049753255</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.07540357691116885</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.06739194115599674</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-2.637483589335742</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-2.401148867640251</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.3080627236940054</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9235847663989943</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.8500305728375935</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-1.881297722414539</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.6229513016429686</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.02830797149784669</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.02518474952553555</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.003519825592064372</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.009759106098856971</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.009459428518777483</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>-0.0205670115118962</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>-0.006878509606170348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
